--- a/excel/finished/焦化/CK67-炼焦-6#焦炉加热制度报表（日）.xlsx
+++ b/excel/finished/焦化/CK67-炼焦-6#焦炉加热制度报表（日）.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="2.6#焦炉加热制度表（日）" sheetId="1" r:id="rId1"/>
     <sheet name="_jiaore6_day_halfhour" sheetId="2" r:id="rId2"/>
     <sheet name="_metadata" sheetId="3" r:id="rId3"/>
-    <sheet name="_dictionary" sheetId="4" r:id="rId4"/>
+    <sheet name="_jhNo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="115">
   <si>
     <t>6# 焦  炉  加  热  制  度  记  录</t>
   </si>
@@ -641,9 +641,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -761,8 +761,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -777,29 +797,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="4"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -813,23 +827,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="4"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -845,14 +843,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -875,9 +865,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -889,11 +894,6 @@
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -923,14 +923,74 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor theme="4" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor theme="9" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor theme="9" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor theme="5" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="47"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor theme="8" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor theme="7" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -941,8 +1001,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor theme="6" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor theme="5" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
@@ -953,32 +1043,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor theme="4" tint="0.399975585192419"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor theme="6" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor theme="8" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
@@ -989,38 +1061,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor theme="6" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor theme="7" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor theme="4" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
       </patternFill>
     </fill>
     <fill>
@@ -1031,14 +1079,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1055,56 +1103,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor theme="8" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor theme="5" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor theme="9" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor theme="8" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor theme="8" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
       </patternFill>
     </fill>
   </fills>
@@ -1299,11 +1299,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1323,21 +1329,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1349,11 +1340,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1373,15 +1371,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1396,16 +1385,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="16">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="16">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1414,19 +1414,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
@@ -1435,10 +1435,10 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="20">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
@@ -1447,104 +1447,104 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="15">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="17">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="16">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="16">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="21">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="22">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -12916,7 +12916,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="D57:E57 G57 I57 K57 D58:E58 G58 I58 K58 D59:E59 G59 I59 K59 D60:E60 G60 I60 K60" formula="1"/>
+    <ignoredError sqref="K60 I60 G60 D60:E60 K59 I59 G59 D59:E59 K58 I58 G58 D58:E58 K57 I57 G57 D57:E57" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/excel/finished/焦化/CK67-炼焦-6#焦炉加热制度报表（日）.xlsx
+++ b/excel/finished/焦化/CK67-炼焦-6#焦炉加热制度报表（日）.xlsx
@@ -1437,6 +1437,21 @@
       <left style="thin">
         <color theme="1"/>
       </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color theme="1"/>
@@ -1490,21 +1505,6 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="1"/>
       </left>
       <right style="thin">
@@ -1740,7 +1740,7 @@
     <xf fontId="19" fillId="0" borderId="0" numFmtId="0" applyFont="1"/>
     <xf fontId="19" fillId="0" borderId="0" numFmtId="0" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1907,16 +1907,13 @@
     <xf fontId="34" fillId="0" borderId="19" numFmtId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="34" fillId="0" borderId="19" numFmtId="164" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="34" fillId="0" borderId="20" numFmtId="164" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="34" fillId="0" borderId="19" numFmtId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="34" fillId="0" borderId="21" numFmtId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="34" fillId="0" borderId="20" numFmtId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="21" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="22" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="36" fillId="0" borderId="10" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1931,22 +1928,22 @@
     <xf fontId="36" fillId="0" borderId="11" numFmtId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="37" fillId="0" borderId="22" numFmtId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf fontId="37" fillId="0" borderId="23" numFmtId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf fontId="37" fillId="0" borderId="24" numFmtId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="24" fillId="0" borderId="25" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="37" fillId="0" borderId="25" numFmtId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="24" fillId="0" borderId="26" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="23" fillId="0" borderId="26" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="23" fillId="0" borderId="20" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="23" fillId="0" borderId="26" numFmtId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="23" fillId="0" borderId="20" numFmtId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="23" fillId="0" borderId="27" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16489,39 +16486,39 @@
         <v/>
       </c>
       <c r="D60" s="50" t="str">
-        <f>IFERROR(D27-D11,"")</f>
+        <f>IFERROR(IF(D11&gt;D27,D27,D27-D11),"")</f>
         <v/>
       </c>
       <c r="E60" s="49" t="str">
         <f>IF(E12="","",AVERAGE(E12:E27))</f>
         <v/>
       </c>
-      <c r="F60" s="51" t="str">
-        <f>IFERROR(F27-F11,"")</f>
+      <c r="F60" s="50" t="str">
+        <f>IFERROR(IF(F11&gt;F27,F27,F27-F11),"")</f>
         <v/>
       </c>
       <c r="G60" s="49" t="str">
         <f>IF(G12="","",AVERAGE(G12:G27))</f>
         <v/>
       </c>
-      <c r="H60" s="51" t="str">
-        <f>IFERROR(H27-H11,"")</f>
+      <c r="H60" s="50" t="str">
+        <f>IFERROR(IF(H11&gt;H27,H27,H27-H11),"")</f>
         <v/>
       </c>
       <c r="I60" s="49" t="str">
         <f>IF(I12="","",AVERAGE(I12:I27))</f>
         <v/>
       </c>
-      <c r="J60" s="51" t="str">
-        <f>IFERROR(J27-J11,"")</f>
+      <c r="J60" s="50" t="str">
+        <f>IFERROR(IF(J11&gt;J27,J27,J27-J11),"")</f>
         <v/>
       </c>
       <c r="K60" s="49" t="str">
         <f>IF(K12="","",AVERAGE(K12:K27))</f>
         <v/>
       </c>
-      <c r="L60" s="51" t="str">
-        <f>IFERROR(L27-L11,"")</f>
+      <c r="L60" s="50" t="str">
+        <f>IFERROR(IF(L11&gt;L27,L27,L27-L11),"")</f>
         <v/>
       </c>
       <c r="M60" s="49" t="str">
@@ -16682,7 +16679,7 @@
         <f>IF(E28="","",AVERAGE(E28:E43))</f>
         <v/>
       </c>
-      <c r="F61" s="51" t="str">
+      <c r="F61" s="50" t="str">
         <f>IFERROR(F43-F27,"")</f>
         <v/>
       </c>
@@ -16690,7 +16687,7 @@
         <f>IF(G28="","",AVERAGE(G28:G43))</f>
         <v/>
       </c>
-      <c r="H61" s="51" t="str">
+      <c r="H61" s="50" t="str">
         <f>IFERROR(H43-H27,"")</f>
         <v/>
       </c>
@@ -16698,7 +16695,7 @@
         <f>IF(I28="","",AVERAGE(I28:I43))</f>
         <v/>
       </c>
-      <c r="J61" s="51" t="str">
+      <c r="J61" s="50" t="str">
         <f>IFERROR(J43-J27,"")</f>
         <v/>
       </c>
@@ -16706,7 +16703,7 @@
         <f>IF(K28="","",AVERAGE(K28:K43))</f>
         <v/>
       </c>
-      <c r="L61" s="51" t="str">
+      <c r="L61" s="50" t="str">
         <f>IFERROR(L43-L27,"")</f>
         <v/>
       </c>
@@ -16868,7 +16865,7 @@
         <f>IF(E44="","",AVERAGE(E44:E59))</f>
         <v/>
       </c>
-      <c r="F62" s="51" t="str">
+      <c r="F62" s="50" t="str">
         <f>IFERROR(F59-F43,"")</f>
         <v/>
       </c>
@@ -16876,7 +16873,7 @@
         <f>IF(G44="","",AVERAGE(G44:G59))</f>
         <v/>
       </c>
-      <c r="H62" s="51" t="str">
+      <c r="H62" s="50" t="str">
         <f>IFERROR(H59-H43,"")</f>
         <v/>
       </c>
@@ -16884,7 +16881,7 @@
         <f>IF(I44="","",AVERAGE(I44:I59))</f>
         <v/>
       </c>
-      <c r="J62" s="51" t="str">
+      <c r="J62" s="50" t="str">
         <f>IFERROR(J59-J43,"")</f>
         <v/>
       </c>
@@ -16892,7 +16889,7 @@
         <f>IF(K44="","",AVERAGE(K44:K59))</f>
         <v/>
       </c>
-      <c r="L62" s="51" t="str">
+      <c r="L62" s="50" t="str">
         <f>IFERROR(L59-L43,"")</f>
         <v/>
       </c>
@@ -17047,39 +17044,39 @@
         <v/>
       </c>
       <c r="D63" s="56" t="str">
-        <f>IFERROR(D59-D11,"")</f>
+        <f>IFERROR(IF((D59-D11)&gt;10,D59-D11,D59),"")</f>
         <v/>
       </c>
       <c r="E63" s="55" t="str">
         <f>IF(E12="","",AVERAGE(E12:E59))</f>
         <v/>
       </c>
-      <c r="F63" s="57" t="str">
-        <f>IFERROR(F59-F11,"")</f>
+      <c r="F63" s="56" t="str">
+        <f>IFERROR(IF((F59-F11)&gt;10,F59-F11,F59),"")</f>
         <v/>
       </c>
       <c r="G63" s="55" t="str">
         <f>IF(G12="","",AVERAGE(G12:G59))</f>
         <v/>
       </c>
-      <c r="H63" s="57" t="str">
-        <f>IFERROR(H59-H11,"")</f>
+      <c r="H63" s="56" t="str">
+        <f>IFERROR(IF((H59-H11)&gt;10,H59-H11,H59),"")</f>
         <v/>
       </c>
       <c r="I63" s="55" t="str">
         <f>IF(I12="","",AVERAGE(I12:I59))</f>
         <v/>
       </c>
-      <c r="J63" s="57" t="str">
-        <f>IFERROR(J59-J11,"")</f>
+      <c r="J63" s="56" t="str">
+        <f>IFERROR(IF((J59-J11)&gt;10,J59-J11,J59),"")</f>
         <v/>
       </c>
       <c r="K63" s="55" t="str">
         <f>IF(K12="","",AVERAGE(K12:K59))</f>
         <v/>
       </c>
-      <c r="L63" s="57" t="str">
-        <f>IFERROR(L59-L11,"")</f>
+      <c r="L63" s="56" t="str">
+        <f>IFERROR(IF((L59-L11)&gt;10,L59-L11,L59),"")</f>
         <v/>
       </c>
       <c r="M63" s="55" t="str">
@@ -17218,124 +17215,124 @@
         <f>IF(AT12="","",AVERAGE(AT12:AT59))</f>
         <v/>
       </c>
-      <c r="AU63" s="58" t="str">
+      <c r="AU63" s="57" t="str">
         <f>IF(AU12="","",AVERAGE(AU12:AU59))</f>
         <v/>
       </c>
-      <c r="AV63" s="59"/>
+      <c r="AV63" s="58"/>
     </row>
     <row ht="87.5" customHeight="1" r="64">
-      <c r="B64" s="60" t="s">
+      <c r="B64" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="62"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="62"/>
-      <c r="J64" s="61"/>
-      <c r="K64" s="62"/>
-      <c r="L64" s="61"/>
-      <c r="M64" s="63" t="s">
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="61"/>
+      <c r="L64" s="60"/>
+      <c r="M64" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="N64" s="62"/>
-      <c r="O64" s="62"/>
-      <c r="P64" s="62"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="62"/>
-      <c r="S64" s="62"/>
-      <c r="T64" s="62"/>
-      <c r="U64" s="62"/>
-      <c r="V64" s="62"/>
-      <c r="W64" s="62"/>
-      <c r="X64" s="63" t="s">
+      <c r="N64" s="61"/>
+      <c r="O64" s="61"/>
+      <c r="P64" s="61"/>
+      <c r="Q64" s="61"/>
+      <c r="R64" s="61"/>
+      <c r="S64" s="61"/>
+      <c r="T64" s="61"/>
+      <c r="U64" s="61"/>
+      <c r="V64" s="61"/>
+      <c r="W64" s="61"/>
+      <c r="X64" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="Y64" s="62"/>
-      <c r="Z64" s="62"/>
-      <c r="AA64" s="62"/>
-      <c r="AB64" s="62"/>
-      <c r="AC64" s="62"/>
-      <c r="AD64" s="62"/>
-      <c r="AE64" s="62"/>
-      <c r="AF64" s="62"/>
-      <c r="AG64" s="62"/>
-      <c r="AH64" s="62"/>
-      <c r="AI64" s="64"/>
-      <c r="AJ64" s="65"/>
-      <c r="AK64" s="65"/>
-      <c r="AL64" s="65"/>
-      <c r="AM64" s="65"/>
-      <c r="AN64" s="65"/>
-      <c r="AO64" s="65"/>
-      <c r="AP64" s="65"/>
-      <c r="AQ64" s="65"/>
-      <c r="AR64" s="65"/>
-      <c r="AS64" s="65"/>
-      <c r="AT64" s="65"/>
-      <c r="AU64" s="65"/>
-      <c r="AV64" s="66"/>
+      <c r="Y64" s="61"/>
+      <c r="Z64" s="61"/>
+      <c r="AA64" s="61"/>
+      <c r="AB64" s="61"/>
+      <c r="AC64" s="61"/>
+      <c r="AD64" s="61"/>
+      <c r="AE64" s="61"/>
+      <c r="AF64" s="61"/>
+      <c r="AG64" s="61"/>
+      <c r="AH64" s="61"/>
+      <c r="AI64" s="63"/>
+      <c r="AJ64" s="64"/>
+      <c r="AK64" s="64"/>
+      <c r="AL64" s="64"/>
+      <c r="AM64" s="64"/>
+      <c r="AN64" s="64"/>
+      <c r="AO64" s="64"/>
+      <c r="AP64" s="64"/>
+      <c r="AQ64" s="64"/>
+      <c r="AR64" s="64"/>
+      <c r="AS64" s="64"/>
+      <c r="AT64" s="64"/>
+      <c r="AU64" s="64"/>
+      <c r="AV64" s="65"/>
     </row>
     <row ht="27.75" customHeight="1" r="65">
-      <c r="B65" s="67" t="s">
+      <c r="B65" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="C65" s="68"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="69"/>
-      <c r="J65" s="68"/>
-      <c r="K65" s="69"/>
-      <c r="L65" s="70"/>
-      <c r="M65" s="71" t="s">
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="67"/>
+      <c r="K65" s="68"/>
+      <c r="L65" s="69"/>
+      <c r="M65" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="N65" s="72"/>
-      <c r="O65" s="72"/>
-      <c r="P65" s="72"/>
-      <c r="Q65" s="72"/>
-      <c r="R65" s="72"/>
-      <c r="S65" s="72"/>
-      <c r="T65" s="72"/>
-      <c r="U65" s="72"/>
-      <c r="V65" s="72"/>
-      <c r="W65" s="72"/>
-      <c r="X65" s="71" t="s">
+      <c r="N65" s="71"/>
+      <c r="O65" s="71"/>
+      <c r="P65" s="71"/>
+      <c r="Q65" s="71"/>
+      <c r="R65" s="71"/>
+      <c r="S65" s="71"/>
+      <c r="T65" s="71"/>
+      <c r="U65" s="71"/>
+      <c r="V65" s="71"/>
+      <c r="W65" s="71"/>
+      <c r="X65" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="Y65" s="72"/>
-      <c r="Z65" s="72"/>
-      <c r="AA65" s="72"/>
-      <c r="AB65" s="72"/>
-      <c r="AC65" s="72"/>
-      <c r="AD65" s="72"/>
-      <c r="AE65" s="72"/>
-      <c r="AF65" s="72"/>
-      <c r="AG65" s="72"/>
-      <c r="AH65" s="73"/>
-      <c r="AI65" s="74"/>
-      <c r="AJ65" s="75"/>
-      <c r="AK65" s="75"/>
-      <c r="AL65" s="75"/>
-      <c r="AM65" s="75"/>
-      <c r="AN65" s="75"/>
-      <c r="AO65" s="75"/>
-      <c r="AP65" s="75"/>
-      <c r="AQ65" s="75"/>
-      <c r="AR65" s="75"/>
-      <c r="AS65" s="75"/>
-      <c r="AT65" s="75"/>
-      <c r="AU65" s="75"/>
-      <c r="AV65" s="76"/>
+      <c r="Y65" s="71"/>
+      <c r="Z65" s="71"/>
+      <c r="AA65" s="71"/>
+      <c r="AB65" s="71"/>
+      <c r="AC65" s="71"/>
+      <c r="AD65" s="71"/>
+      <c r="AE65" s="71"/>
+      <c r="AF65" s="71"/>
+      <c r="AG65" s="71"/>
+      <c r="AH65" s="72"/>
+      <c r="AI65" s="73"/>
+      <c r="AJ65" s="74"/>
+      <c r="AK65" s="74"/>
+      <c r="AL65" s="74"/>
+      <c r="AM65" s="74"/>
+      <c r="AN65" s="74"/>
+      <c r="AO65" s="74"/>
+      <c r="AP65" s="74"/>
+      <c r="AQ65" s="74"/>
+      <c r="AR65" s="74"/>
+      <c r="AS65" s="74"/>
+      <c r="AT65" s="74"/>
+      <c r="AU65" s="74"/>
+      <c r="AV65" s="75"/>
     </row>
     <row r="66">
-      <c r="C66" s="77"/>
+      <c r="C66" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -21341,133 +21338,133 @@
       <c r="J1" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="K1" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="78" t="s">
+      <c r="L1" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="78" t="s">
+      <c r="M1" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="78" t="s">
+      <c r="N1" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="78" t="s">
+      <c r="O1" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="78" t="s">
+      <c r="P1" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" s="78" t="s">
+      <c r="Q1" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="78" t="s">
+      <c r="R1" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="S1" s="78" t="s">
+      <c r="S1" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="T1" s="78" t="s">
+      <c r="T1" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="U1" s="78" t="s">
+      <c r="U1" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="V1" s="78" t="s">
+      <c r="V1" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="W1" s="78" t="s">
+      <c r="W1" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="X1" s="78" t="s">
+      <c r="X1" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="Y1" s="78" t="s">
+      <c r="Y1" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="Z1" s="78" t="s">
+      <c r="Z1" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="AA1" s="78" t="s">
+      <c r="AA1" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="AB1" s="78" t="s">
+      <c r="AB1" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="AC1" s="78" t="s">
+      <c r="AC1" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="AD1" s="78" t="s">
+      <c r="AD1" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="AE1" s="78" t="s">
+      <c r="AE1" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="AF1" s="78" t="s">
+      <c r="AF1" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="AG1" s="78" t="s">
+      <c r="AG1" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="AH1" s="78" t="s">
+      <c r="AH1" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="AI1" s="78" t="s">
+      <c r="AI1" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="AJ1" s="78" t="s">
+      <c r="AJ1" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="AK1" s="79" t="s">
+      <c r="AK1" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="AL1" s="80" t="s">
+      <c r="AL1" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="AM1" s="81" t="s">
+      <c r="AM1" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="AN1" s="81" t="s">
+      <c r="AN1" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="81" t="s">
+      <c r="AO1" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="AP1" s="81" t="s">
+      <c r="AP1" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="AQ1" s="81" t="s">
+      <c r="AQ1" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="AR1" s="81" t="s">
+      <c r="AR1" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="AS1" s="81" t="s">
+      <c r="AS1" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="AT1" s="82" t="s">
+      <c r="AT1" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="AU1" s="81" t="s">
+      <c r="AU1" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="AV1" s="81" t="s">
+      <c r="AV1" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="AW1" s="81" t="s">
+      <c r="AW1" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="AY1" s="81" t="s">
+      <c r="AY1" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="AZ1" s="81" t="s">
+      <c r="AZ1" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="BA1" s="81" t="s">
+      <c r="BA1" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="BB1" s="81" t="s">
+      <c r="BB1" s="80" t="s">
         <v>136</v>
       </c>
     </row>
@@ -21783,7 +21780,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>137</v>
       </c>
       <c r="B1" s="0">
